--- a/Itatinga_Nuc_recruitment_SpeciesList.xlsx
+++ b/Itatinga_Nuc_recruitment_SpeciesList.xlsx
@@ -1168,14 +1168,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -1629,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <f>SUM(C2:D2)</f>
+        <f t="shared" ref="E2:E65" si="0">SUM(C2:D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
@@ -1639,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <f>SUM(F2:G2)</f>
+        <f t="shared" ref="H2:H65" si="1">SUM(F2:G2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2">
@@ -1649,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <f>SUM(I2:J2)</f>
+        <f t="shared" ref="K2:K65" si="2">SUM(I2:J2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="2">
@@ -1662,7 +1661,7 @@
         <f>SUM(L2:M2)</f>
         <v>5</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2">
@@ -1699,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <f>SUM(C3:D3)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F3" s="2">
@@ -1709,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <f>SUM(F3:G3)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I3" s="2">
@@ -1719,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="3">
-        <f>SUM(I3:J3)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L3" s="2">
@@ -1729,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N34" si="0">SUM(L3:M3)</f>
+        <f t="shared" ref="N3:N34" si="3">SUM(L3:M3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
@@ -1739,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q34" si="1">SUM(O3:P3)</f>
+        <f t="shared" ref="Q3:Q34" si="4">SUM(O3:P3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R34" si="2">C3+F3+I3+L3+O3</f>
+        <f t="shared" ref="R3:R34" si="5">C3+F3+I3+L3+O3</f>
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S34" si="3">D3+G3+J3+M3+P3</f>
+        <f t="shared" ref="S3:S34" si="6">D3+G3+J3+M3+P3</f>
         <v>16</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" ref="T3:T34" si="4">S3+R3</f>
+        <f t="shared" ref="T3:T34" si="7">S3+R3</f>
         <v>16</v>
       </c>
     </row>
@@ -1769,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <f>SUM(C4:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -1779,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f>SUM(F4:G4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="2">
@@ -1789,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f>SUM(I4:J4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L4" s="2">
@@ -1799,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O4" s="2">
@@ -1809,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -1839,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <f>SUM(C5:D5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5" s="2">
@@ -1849,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>SUM(F5:G5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -1859,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f>SUM(I5:J5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="2">
@@ -1869,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -1879,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -1909,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(C6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="2">
@@ -1919,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>SUM(F6:G6)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I6" s="2">
@@ -1929,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f>SUM(I6:J6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
@@ -1939,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O6" s="2">
@@ -1949,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
@@ -1979,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(C7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="2">
@@ -1989,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f>SUM(F7:G7)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I7" s="2">
@@ -1999,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="3">
-        <f>SUM(I7:J7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L7" s="2">
@@ -2009,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="2">
@@ -2019,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2049,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f>SUM(C8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2">
@@ -2059,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f>SUM(F8:G8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="2">
@@ -2069,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f>SUM(I8:J8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="2">
@@ -2079,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8" s="2">
@@ -2089,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2119,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <f>SUM(C9:D9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F9" s="2">
@@ -2129,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f>SUM(F9:G9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
@@ -2139,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f>SUM(I9:J9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="2">
@@ -2149,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="2">
@@ -2159,19 +2158,19 @@
         <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -2189,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="2">
@@ -2199,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="3">
-        <f>SUM(F10:G10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I10" s="2">
@@ -2209,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f>SUM(I10:J10)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L10" s="2">
@@ -2219,29 +2218,29 @@
         <v>1</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="S10" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
       <c r="T10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -2259,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <f>SUM(C11:D11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="2">
@@ -2269,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f>SUM(F11:G11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="2">
@@ -2279,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <f>SUM(I11:J11)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L11" s="2">
@@ -2289,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="2">
@@ -2299,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -2329,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3">
-        <f>SUM(C12:D12)</f>
+        <f t="shared" si="0"/>
         <v>1446</v>
       </c>
       <c r="F12" s="2">
@@ -2339,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="3">
-        <f>SUM(F12:G12)</f>
+        <f t="shared" si="1"/>
         <v>931</v>
       </c>
       <c r="I12" s="2">
@@ -2349,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="3">
-        <f>SUM(I12:J12)</f>
+        <f t="shared" si="2"/>
         <v>939</v>
       </c>
       <c r="L12" s="2">
@@ -2359,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1790</v>
       </c>
       <c r="O12" s="2">
@@ -2369,19 +2368,19 @@
         <v>4</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>515</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5574</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5621</v>
       </c>
     </row>
@@ -2399,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f>SUM(C13:D13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="2">
@@ -2409,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <f>SUM(F13:G13)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I13" s="2">
@@ -2419,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>SUM(I13:J13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="2">
@@ -2429,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="2">
@@ -2439,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2469,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="3">
-        <f>SUM(C14:D14)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F14" s="2">
@@ -2479,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <f>SUM(F14:G14)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I14" s="2">
@@ -2489,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="3">
-        <f>SUM(I14:J14)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L14" s="2">
@@ -2499,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O14" s="2">
@@ -2509,19 +2508,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
     </row>
@@ -2539,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <f>SUM(C15:D15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
@@ -2549,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <f>SUM(F15:G15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I15" s="2">
@@ -2559,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <f>SUM(I15:J15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
@@ -2569,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="2">
@@ -2579,19 +2578,19 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -2609,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f>SUM(C16:D16)</f>
+        <f t="shared" si="0"/>
         <v>634</v>
       </c>
       <c r="F16" s="2">
@@ -2619,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <f>SUM(F16:G16)</f>
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="I16" s="2">
@@ -2629,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f>SUM(I16:J16)</f>
+        <f t="shared" si="2"/>
         <v>1311</v>
       </c>
       <c r="L16" s="2">
@@ -2639,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>491</v>
       </c>
       <c r="O16" s="2">
@@ -2649,19 +2648,19 @@
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3346</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3348</v>
       </c>
     </row>
@@ -2679,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f>SUM(C17:D17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="2">
@@ -2689,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f>SUM(F17:G17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2">
@@ -2699,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f>SUM(I17:J17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="2">
@@ -2709,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="2">
@@ -2719,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2749,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <f>SUM(C18:D18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F18" s="2">
@@ -2759,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f>SUM(F18:G18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2">
@@ -2769,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <f>SUM(I18:J18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -2779,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="2">
@@ -2789,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -2819,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f>SUM(C19:D19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="2">
@@ -2829,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f>SUM(F19:G19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2">
@@ -2839,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="3">
-        <f>SUM(I19:J19)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L19" s="2">
@@ -2849,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="2">
@@ -2859,19 +2858,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2889,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f>SUM(C20:D20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
@@ -2899,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="3">
-        <f>SUM(F20:G20)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I20" s="2">
@@ -2909,7 +2908,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="3">
-        <f>SUM(I20:J20)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L20" s="2">
@@ -2919,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O20" s="2">
@@ -2929,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -2959,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f>SUM(C21:D21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="2">
@@ -2969,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f>SUM(F21:G21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2">
@@ -2979,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f>SUM(I21:J21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="2">
@@ -2989,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O21" s="2">
@@ -2999,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3029,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <f>SUM(C22:D22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="2">
@@ -3039,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f>SUM(F22:G22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2">
@@ -3049,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <f>SUM(I22:J22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="2">
@@ -3059,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="2">
@@ -3069,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3099,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <f>SUM(C23:D23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="2">
@@ -3109,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="3">
-        <f>SUM(F23:G23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I23" s="2">
@@ -3119,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f>SUM(I23:J23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="2">
@@ -3129,7 +3128,7 @@
         <v>10</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O23" s="2">
@@ -3139,19 +3138,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -3169,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <f>SUM(C24:D24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="2">
@@ -3179,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="3">
-        <f>SUM(F24:G24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I24" s="2">
@@ -3189,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f>SUM(I24:J24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="2">
@@ -3199,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="2">
@@ -3209,19 +3208,19 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -3239,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <f>SUM(C25:D25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="2">
@@ -3249,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="3">
-        <f>SUM(F25:G25)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I25" s="2">
@@ -3259,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="3">
-        <f>SUM(I25:J25)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L25" s="2">
@@ -3269,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="2">
@@ -3279,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3309,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f>SUM(C26:D26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="2">
@@ -3319,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <f>SUM(F26:G26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2">
@@ -3329,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <f>SUM(I26:J26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="2">
@@ -3339,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O26" s="2">
@@ -3349,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
@@ -3379,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <f>SUM(C27:D27)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="F27" s="2">
@@ -3389,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <f>SUM(F27:G27)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="I27" s="2">
@@ -3399,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <f>SUM(I27:J27)</f>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="L27" s="2">
@@ -3409,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="O27" s="2">
@@ -3419,19 +3418,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>394</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>395</v>
       </c>
     </row>
@@ -3449,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f>SUM(C28:D28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="2">
@@ -3459,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f>SUM(F28:G28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I28" s="2">
@@ -3469,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f>SUM(I28:J28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -3479,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O28" s="2">
@@ -3489,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -3519,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f>SUM(C29:D29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="2">
@@ -3529,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f>SUM(F29:G29)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I29" s="2">
@@ -3539,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f>SUM(I29:J29)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L29" s="2">
@@ -3549,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="O29" s="2">
@@ -3559,19 +3558,19 @@
         <v>3</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
     </row>
@@ -3589,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <f>SUM(C30:D30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
@@ -3599,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <f>SUM(F30:G30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2">
@@ -3609,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <f>SUM(I30:J30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="2">
@@ -3619,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O30" s="2">
@@ -3629,19 +3628,19 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -3659,7 +3658,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="3">
-        <f>SUM(C31:D31)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F31" s="2">
@@ -3669,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <f>SUM(F31:G31)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I31" s="2">
@@ -3679,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f>SUM(I31:J31)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L31" s="2">
@@ -3689,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="O31" s="2">
@@ -3699,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
     </row>
@@ -3729,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <f>SUM(C32:D32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="2">
@@ -3739,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <f>SUM(F32:G32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I32" s="2">
@@ -3749,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <f>SUM(I32:J32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="2">
@@ -3759,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="2">
@@ -3769,19 +3768,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -3799,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <f>SUM(C33:D33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="2">
@@ -3809,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <f>SUM(F33:G33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2">
@@ -3819,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <f>SUM(I33:J33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -3829,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O33" s="2">
@@ -3839,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -3869,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <f>SUM(C34:D34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="2">
@@ -3879,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <f>SUM(F34:G34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2">
@@ -3889,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <f>SUM(I34:J34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -3899,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O34" s="2">
@@ -3909,19 +3908,19 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3939,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="3">
-        <f>SUM(C35:D35)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F35" s="2">
@@ -3949,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="3">
-        <f>SUM(F35:G35)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I35" s="2">
@@ -3959,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="3">
-        <f>SUM(I35:J35)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L35" s="2">
@@ -3969,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35:N66" si="5">SUM(L35:M35)</f>
+        <f t="shared" ref="N35:N66" si="8">SUM(L35:M35)</f>
         <v>5</v>
       </c>
       <c r="O35" s="2">
@@ -3979,19 +3978,19 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" ref="Q35:Q66" si="6">SUM(O35:P35)</f>
+        <f t="shared" ref="Q35:Q66" si="9">SUM(O35:P35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" ref="R35:R66" si="7">C35+F35+I35+L35+O35</f>
+        <f t="shared" ref="R35:R66" si="10">C35+F35+I35+L35+O35</f>
         <v>11</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" ref="S35:S66" si="8">D35+G35+J35+M35+P35</f>
+        <f t="shared" ref="S35:S66" si="11">D35+G35+J35+M35+P35</f>
         <v>8</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" ref="T35:T66" si="9">S35+R35</f>
+        <f t="shared" ref="T35:T66" si="12">S35+R35</f>
         <v>19</v>
       </c>
     </row>
@@ -4009,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="3">
-        <f>SUM(C36:D36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F36" s="2">
@@ -4019,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <f>SUM(F36:G36)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I36" s="2">
@@ -4029,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <f>SUM(I36:J36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="2">
@@ -4039,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O36" s="2">
@@ -4049,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
@@ -4079,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <f>SUM(C37:D37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="2">
@@ -4089,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="3">
-        <f>SUM(F37:G37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I37" s="2">
@@ -4099,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <f>SUM(I37:J37)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L37" s="2">
@@ -4109,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="O37" s="2">
@@ -4119,19 +4118,19 @@
         <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
@@ -4149,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <f>SUM(C38:D38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="2">
@@ -4159,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <f>SUM(F38:G38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2">
@@ -4169,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <f>SUM(I38:J38)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L38" s="2">
@@ -4179,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O38" s="2">
@@ -4189,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4219,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <f>SUM(C39:D39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="2">
@@ -4229,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <f>SUM(F39:G39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2">
@@ -4239,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <f>SUM(I39:J39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39" s="2">
@@ -4249,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O39" s="2">
@@ -4259,19 +4258,19 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4289,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="3">
-        <f>SUM(C40:D40)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F40" s="2">
@@ -4299,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="3">
-        <f>SUM(F40:G40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I40" s="2">
@@ -4309,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <f>SUM(I40:J40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40" s="2">
@@ -4319,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40" s="2">
@@ -4329,19 +4328,19 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -4359,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <f>SUM(C41:D41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41" s="2">
@@ -4369,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <f>SUM(F41:G41)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I41" s="2">
@@ -4379,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <f>SUM(I41:J41)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L41" s="2">
@@ -4389,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="O41" s="2">
@@ -4399,19 +4398,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
@@ -4429,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <f>SUM(C42:D42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="2">
@@ -4439,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f>SUM(F42:G42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2">
@@ -4449,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="K42" s="3">
-        <f>SUM(I42:J42)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L42" s="2">
@@ -4459,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O42" s="2">
@@ -4469,19 +4468,19 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -4499,7 +4498,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="3">
-        <f>SUM(C43:D43)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F43" s="2">
@@ -4509,7 +4508,7 @@
         <v>17</v>
       </c>
       <c r="H43" s="3">
-        <f>SUM(F43:G43)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I43" s="2">
@@ -4519,7 +4518,7 @@
         <v>32</v>
       </c>
       <c r="K43" s="3">
-        <f>SUM(I43:J43)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="L43" s="2">
@@ -4529,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="O43" s="2">
@@ -4539,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
     </row>
@@ -4569,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <f>SUM(C44:D44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="2">
@@ -4579,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="3">
-        <f>SUM(F44:G44)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I44" s="2">
@@ -4589,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <f>SUM(I44:J44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44" s="2">
@@ -4599,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O44" s="2">
@@ -4609,19 +4608,19 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
     </row>
@@ -4639,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <f>SUM(C45:D45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F45" s="2">
@@ -4649,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="3">
-        <f>SUM(F45:G45)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I45" s="2">
@@ -4659,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <f>SUM(I45:J45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L45" s="2">
@@ -4669,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O45" s="2">
@@ -4679,19 +4678,19 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="S45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
@@ -4709,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <f>SUM(C46:D46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F46" s="2">
@@ -4719,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="3">
-        <f>SUM(F46:G46)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I46" s="2">
@@ -4729,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <f>SUM(I46:J46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L46" s="2">
@@ -4739,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O46" s="2">
@@ -4749,19 +4748,19 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
@@ -4779,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <f>SUM(C47:D47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47" s="2">
@@ -4789,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="3">
-        <f>SUM(F47:G47)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I47" s="2">
@@ -4799,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f>SUM(I47:J47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L47" s="2">
@@ -4809,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O47" s="2">
@@ -4819,19 +4818,19 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -4849,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f>SUM(C48:D48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F48" s="2">
@@ -4859,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <f>SUM(F48:G48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2">
@@ -4869,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <f>SUM(I48:J48)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L48" s="2">
@@ -4879,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O48" s="2">
@@ -4889,19 +4888,19 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -4919,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <f>SUM(C49:D49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F49" s="2">
@@ -4929,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <f>SUM(F49:G49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2">
@@ -4939,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f>SUM(I49:J49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L49" s="2">
@@ -4949,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O49" s="2">
@@ -4959,19 +4958,19 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4989,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <f>SUM(C50:D50)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F50" s="2">
@@ -4999,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="3">
-        <f>SUM(F50:G50)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="I50" s="2">
@@ -5009,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="3">
-        <f>SUM(I50:J50)</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="L50" s="2">
@@ -5019,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
       <c r="O50" s="2">
@@ -5029,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>333</v>
       </c>
     </row>
@@ -5059,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <f>SUM(C51:D51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F51" s="2">
@@ -5069,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <f>SUM(F51:G51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2">
@@ -5079,18 +5078,18 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <f>SUM(I51:J51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
@@ -5099,20 +5098,20 @@
         <v>0</v>
       </c>
       <c r="Q51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -5129,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f>SUM(C52:D52)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F52" s="2">
@@ -5139,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <f>SUM(F52:G52)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I52" s="2">
@@ -5149,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <f>SUM(I52:J52)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L52" s="2">
@@ -5159,7 +5158,7 @@
         <v>35</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="O52" s="2">
@@ -5169,19 +5168,19 @@
         <v>28</v>
       </c>
       <c r="Q52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
     </row>
@@ -5192,44 +5191,44 @@
       <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <f>SUM(C53:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>1</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <f>SUM(F53:G53)</f>
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <f>SUM(I53:J53)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
         <v>0</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O53" s="2">
@@ -5239,19 +5238,19 @@
         <v>0</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S53" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5269,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f>SUM(C54:D54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54" s="2">
@@ -5279,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <f>SUM(F54:G54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2">
@@ -5289,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f>SUM(I54:J54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L54" s="2">
@@ -5299,7 +5298,7 @@
         <v>2</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O54" s="2">
@@ -5309,19 +5308,19 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -5339,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="3">
-        <f>SUM(C55:D55)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F55" s="2">
@@ -5349,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="3">
-        <f>SUM(F55:G55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2">
@@ -5359,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="K55" s="3">
-        <f>SUM(I55:J55)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L55" s="2">
@@ -5369,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O55" s="2">
@@ -5379,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -5409,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <f>SUM(C56:D56)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F56" s="2">
@@ -5419,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="3">
-        <f>SUM(F56:G56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2">
@@ -5429,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <f>SUM(I56:J56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L56" s="2">
@@ -5439,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="O56" s="2">
@@ -5449,19 +5448,19 @@
         <v>0</v>
       </c>
       <c r="Q56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -5479,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <f>SUM(C57:D57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F57" s="2">
@@ -5489,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <f>SUM(F57:G57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I57" s="2">
@@ -5499,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3">
-        <f>SUM(I57:J57)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L57" s="2">
@@ -5509,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O57" s="2">
@@ -5519,19 +5518,19 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -5549,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <f>SUM(C58:D58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58" s="2">
@@ -5559,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <f>SUM(F58:G58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2">
@@ -5569,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <f>SUM(I58:J58)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L58" s="2">
@@ -5579,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O58" s="2">
@@ -5589,19 +5588,19 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5619,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <f>SUM(C59:D59)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F59" s="2">
@@ -5629,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <f>SUM(F59:G59)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I59" s="2">
@@ -5639,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="3">
-        <f>SUM(I59:J59)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L59" s="2">
@@ -5649,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="O59" s="2">
@@ -5659,19 +5658,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
     </row>
@@ -5689,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <f>SUM(C60:D60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F60" s="2">
@@ -5699,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <f>SUM(F60:G60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2">
@@ -5709,18 +5708,18 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <f>SUM(I60:J60)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L60" s="2">
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O60" s="2">
         <v>0</v>
@@ -5729,20 +5728,20 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -5759,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <f>SUM(C61:D61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F61" s="2">
@@ -5769,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="3">
-        <f>SUM(F61:G61)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I61" s="2">
@@ -5779,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <f>SUM(I61:J61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L61" s="2">
@@ -5789,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O61" s="2">
@@ -5799,19 +5798,19 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -5829,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f>SUM(C62:D62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F62" s="2">
@@ -5839,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <f>SUM(F62:G62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I62" s="2">
@@ -5849,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f>SUM(I62:J62)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L62" s="2">
@@ -5859,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O62" s="2">
@@ -5869,19 +5868,19 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5899,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <f>SUM(C63:D63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F63" s="2">
@@ -5909,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="3">
-        <f>SUM(F63:G63)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I63" s="2">
@@ -5919,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <f>SUM(I63:J63)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L63" s="2">
@@ -5929,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="O63" s="2">
@@ -5939,19 +5938,19 @@
         <v>0</v>
       </c>
       <c r="Q63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -5969,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="3">
-        <f>SUM(C64:D64)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F64" s="2">
@@ -5979,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f>SUM(F64:G64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64" s="2">
@@ -5989,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f>SUM(I64:J64)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L64" s="2">
@@ -5999,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O64" s="2">
@@ -6009,19 +6008,19 @@
         <v>0</v>
       </c>
       <c r="Q64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R64" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S64" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -6039,7 +6038,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="3">
-        <f>SUM(C65:D65)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F65" s="2">
@@ -6049,7 +6048,7 @@
         <v>6</v>
       </c>
       <c r="H65" s="3">
-        <f>SUM(F65:G65)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I65" s="2">
@@ -6059,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="K65" s="3">
-        <f>SUM(I65:J65)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L65" s="2">
@@ -6069,7 +6068,7 @@
         <v>4</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="O65" s="2">
@@ -6079,19 +6078,19 @@
         <v>0</v>
       </c>
       <c r="Q65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="R65" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="S65" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="T65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
     </row>
@@ -6109,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <f>SUM(C66:D66)</f>
+        <f t="shared" ref="E66:E114" si="13">SUM(C66:D66)</f>
         <v>1</v>
       </c>
       <c r="F66" s="2">
@@ -6119,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <f>SUM(F66:G66)</f>
+        <f t="shared" ref="H66:H114" si="14">SUM(F66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="2">
@@ -6129,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <f>SUM(I66:J66)</f>
+        <f t="shared" ref="K66:K114" si="15">SUM(I66:J66)</f>
         <v>0</v>
       </c>
       <c r="L66" s="2">
@@ -6139,7 +6138,7 @@
         <v>11</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="O66" s="2">
@@ -6149,19 +6148,19 @@
         <v>3</v>
       </c>
       <c r="Q66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="S66" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="T66" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -6179,7 +6178,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="3">
-        <f>SUM(C67:D67)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F67" s="2">
@@ -6189,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="3">
-        <f>SUM(F67:G67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I67" s="2">
@@ -6199,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <f>SUM(I67:J67)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L67" s="2">
@@ -6209,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" ref="N67:N98" si="10">SUM(L67:M67)</f>
+        <f t="shared" ref="N67:N98" si="16">SUM(L67:M67)</f>
         <v>0</v>
       </c>
       <c r="O67" s="2">
@@ -6219,19 +6218,19 @@
         <v>0</v>
       </c>
       <c r="Q67" s="3">
-        <f t="shared" ref="Q67:Q98" si="11">SUM(O67:P67)</f>
+        <f t="shared" ref="Q67:Q98" si="17">SUM(O67:P67)</f>
         <v>2</v>
       </c>
       <c r="R67" s="2">
-        <f t="shared" ref="R67:R98" si="12">C67+F67+I67+L67+O67</f>
+        <f t="shared" ref="R67:R98" si="18">C67+F67+I67+L67+O67</f>
         <v>2</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" ref="S67:S98" si="13">D67+G67+J67+M67+P67</f>
+        <f t="shared" ref="S67:S98" si="19">D67+G67+J67+M67+P67</f>
         <v>5</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" ref="T67:T98" si="14">S67+R67</f>
+        <f t="shared" ref="T67:T98" si="20">S67+R67</f>
         <v>7</v>
       </c>
     </row>
@@ -6249,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <f>SUM(C68:D68)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F68" s="2">
@@ -6259,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <f>SUM(F68:G68)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I68" s="2">
@@ -6269,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <f>SUM(I68:J68)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L68" s="2">
@@ -6279,7 +6278,7 @@
         <v>7</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="O68" s="2">
@@ -6289,19 +6288,19 @@
         <v>2</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
     </row>
@@ -6319,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <f>SUM(C69:D69)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F69" s="2">
@@ -6329,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <f>SUM(F69:G69)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I69" s="2">
@@ -6339,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="3">
-        <f>SUM(I69:J69)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L69" s="2">
@@ -6349,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O69" s="2">
@@ -6359,19 +6358,19 @@
         <v>0</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
     </row>
@@ -6389,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <f>SUM(C70:D70)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F70" s="2">
@@ -6399,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <f>SUM(F70:G70)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I70" s="2">
@@ -6409,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <f>SUM(I70:J70)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L70" s="2">
@@ -6419,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O70" s="2">
@@ -6429,19 +6428,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R70" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S70" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T70" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
@@ -6459,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <f>SUM(C71:D71)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F71" s="2">
@@ -6469,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <f>SUM(F71:G71)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I71" s="2">
@@ -6479,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <f>SUM(I71:J71)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -6489,7 +6488,7 @@
         <v>6</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="O71" s="2">
@@ -6499,19 +6498,19 @@
         <v>0</v>
       </c>
       <c r="Q71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S71" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
     </row>
@@ -6529,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <f>SUM(C72:D72)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F72" s="2">
@@ -6539,7 +6538,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="3">
-        <f>SUM(F72:G72)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I72" s="2">
@@ -6549,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <f>SUM(I72:J72)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L72" s="2">
@@ -6559,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O72" s="2">
@@ -6569,19 +6568,19 @@
         <v>0</v>
       </c>
       <c r="Q72" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R72" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
     </row>
@@ -6599,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <f>SUM(C73:D73)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F73" s="2">
@@ -6609,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <f>SUM(F73:G73)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="I73" s="2">
@@ -6619,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="3">
-        <f>SUM(I73:J73)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L73" s="2">
@@ -6629,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O73" s="2">
@@ -6639,19 +6638,19 @@
         <v>0</v>
       </c>
       <c r="Q73" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R73" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
     </row>
@@ -6669,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <f>SUM(C74:D74)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F74" s="2">
@@ -6679,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="3">
-        <f>SUM(F74:G74)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I74" s="2">
@@ -6689,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="3">
-        <f>SUM(I74:J74)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L74" s="2">
@@ -6699,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O74" s="2">
@@ -6709,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
     </row>
@@ -6739,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <f>SUM(C75:D75)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F75" s="2">
@@ -6749,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <f>SUM(F75:G75)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="I75" s="2">
@@ -6759,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <f>SUM(I75:J75)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L75" s="2">
@@ -6769,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O75" s="2">
@@ -6779,19 +6778,19 @@
         <v>0</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
     </row>
@@ -6809,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <f>SUM(C76:D76)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F76" s="2">
@@ -6819,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <f>SUM(F76:G76)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="I76" s="2">
@@ -6829,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <f>SUM(I76:J76)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L76" s="2">
@@ -6839,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="O76" s="2">
@@ -6849,19 +6848,19 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
     </row>
@@ -6879,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="3">
-        <f>SUM(C77:D77)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F77" s="2">
@@ -6889,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="3">
-        <f>SUM(F77:G77)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I77" s="2">
@@ -6899,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <f>SUM(I77:J77)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L77" s="2">
@@ -6909,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O77" s="2">
@@ -6919,19 +6918,19 @@
         <v>0</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
     </row>
@@ -6949,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="3">
-        <f>SUM(C78:D78)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F78" s="2">
@@ -6959,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="3">
-        <f>SUM(F78:G78)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I78" s="2">
@@ -6969,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="3">
-        <f>SUM(I78:J78)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="L78" s="2">
@@ -6979,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O78" s="2">
@@ -6989,19 +6988,19 @@
         <v>0</v>
       </c>
       <c r="Q78" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
@@ -7019,7 +7018,7 @@
         <v>14</v>
       </c>
       <c r="E79" s="3">
-        <f>SUM(C79:D79)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="F79" s="2">
@@ -7029,7 +7028,7 @@
         <v>11</v>
       </c>
       <c r="H79" s="3">
-        <f>SUM(F79:G79)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="I79" s="2">
@@ -7039,7 +7038,7 @@
         <v>8</v>
       </c>
       <c r="K79" s="3">
-        <f>SUM(I79:J79)</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L79" s="2">
@@ -7049,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="O79" s="2">
@@ -7059,19 +7058,19 @@
         <v>0</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
     </row>
@@ -7089,7 +7088,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="3">
-        <f>SUM(C80:D80)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="F80" s="2">
@@ -7099,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="3">
-        <f>SUM(F80:G80)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I80" s="2">
@@ -7109,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="3">
-        <f>SUM(I80:J80)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="L80" s="2">
@@ -7119,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O80" s="2">
@@ -7129,19 +7128,19 @@
         <v>0</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
     </row>
@@ -7159,7 +7158,7 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <f>SUM(C81:D81)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F81" s="2">
@@ -7169,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <f>SUM(F81:G81)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I81" s="2">
@@ -7179,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <f>SUM(I81:J81)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L81" s="2">
@@ -7189,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O81" s="2">
@@ -7199,19 +7198,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R81" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
     </row>
@@ -7229,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="3">
-        <f>SUM(C82:D82)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="F82" s="2">
@@ -7239,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <f>SUM(F82:G82)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="I82" s="2">
@@ -7249,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="3">
-        <f>SUM(I82:J82)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L82" s="2">
@@ -7259,7 +7258,7 @@
         <v>3</v>
       </c>
       <c r="N82" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="O82" s="2">
@@ -7269,19 +7268,19 @@
         <v>0</v>
       </c>
       <c r="Q82" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R82" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
     </row>
@@ -7299,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <f>SUM(C83:D83)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F83" s="2">
@@ -7309,7 +7308,7 @@
         <v>2</v>
       </c>
       <c r="H83" s="3">
-        <f>SUM(F83:G83)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I83" s="2">
@@ -7319,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <f>SUM(I83:J83)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L83" s="2">
@@ -7329,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="N83" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O83" s="2">
@@ -7339,19 +7338,19 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R83" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
     </row>
@@ -7369,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="3">
-        <f>SUM(C84:D84)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F84" s="2">
@@ -7379,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <f>SUM(F84:G84)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I84" s="2">
@@ -7389,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <f>SUM(I84:J84)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L84" s="2">
@@ -7399,7 +7398,7 @@
         <v>6</v>
       </c>
       <c r="N84" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="O84" s="2">
@@ -7409,19 +7408,19 @@
         <v>0</v>
       </c>
       <c r="Q84" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R84" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
     </row>
@@ -7439,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="3">
-        <f>SUM(C85:D85)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="F85" s="2">
@@ -7449,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="3">
-        <f>SUM(F85:G85)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I85" s="2">
@@ -7459,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <f>SUM(I85:J85)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="L85" s="2">
@@ -7469,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="O85" s="2">
@@ -7479,19 +7478,19 @@
         <v>0</v>
       </c>
       <c r="Q85" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R85" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
     </row>
@@ -7509,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="3">
-        <f>SUM(C86:D86)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F86" s="2">
@@ -7519,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <f>SUM(F86:G86)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I86" s="2">
@@ -7529,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="3">
-        <f>SUM(I86:J86)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L86" s="2">
@@ -7539,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O86" s="2">
@@ -7549,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="Q86" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="R86" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
@@ -7579,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="3">
-        <f>SUM(C87:D87)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F87" s="2">
@@ -7589,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <f>SUM(F87:G87)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I87" s="2">
@@ -7599,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="3">
-        <f>SUM(I87:J87)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L87" s="2">
@@ -7609,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O87" s="2">
@@ -7619,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="Q87" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R87" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>
@@ -7649,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="3">
-        <f>SUM(C88:D88)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F88" s="2">
@@ -7659,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="3">
-        <f>SUM(F88:G88)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I88" s="2">
@@ -7669,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <f>SUM(I88:J88)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L88" s="2">
@@ -7679,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O88" s="2">
@@ -7689,19 +7688,19 @@
         <v>0</v>
       </c>
       <c r="Q88" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R88" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -7719,7 +7718,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="3">
-        <f>SUM(C89:D89)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="F89" s="2">
@@ -7729,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="3">
-        <f>SUM(F89:G89)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I89" s="2">
@@ -7739,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <f>SUM(I89:J89)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L89" s="2">
@@ -7749,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="O89" s="2">
@@ -7759,19 +7758,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R89" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
     </row>
@@ -7789,7 +7788,7 @@
         <v>12</v>
       </c>
       <c r="E90" s="3">
-        <f>SUM(C90:D90)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="F90" s="2">
@@ -7799,7 +7798,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="3">
-        <f>SUM(F90:G90)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="I90" s="2">
@@ -7809,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <f>SUM(I90:J90)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L90" s="2">
@@ -7819,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="O90" s="2">
@@ -7829,19 +7828,19 @@
         <v>0</v>
       </c>
       <c r="Q90" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R90" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
     </row>
@@ -7859,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <f>SUM(C91:D91)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F91" s="2">
@@ -7869,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <f>SUM(F91:G91)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I91" s="2">
@@ -7879,7 +7878,7 @@
         <v>8</v>
       </c>
       <c r="K91" s="3">
-        <f>SUM(I91:J91)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="L91" s="2">
@@ -7889,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O91" s="2">
@@ -7899,19 +7898,19 @@
         <v>2</v>
       </c>
       <c r="Q91" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="R91" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
     </row>
@@ -7929,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="3">
-        <f>SUM(C92:D92)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F92" s="2">
@@ -7939,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="3">
-        <f>SUM(F92:G92)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I92" s="2">
@@ -7949,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="3">
-        <f>SUM(I92:J92)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L92" s="2">
@@ -7959,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O92" s="2">
@@ -7969,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="Q92" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R92" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -7999,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="3">
-        <f>SUM(C93:D93)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F93" s="2">
@@ -8009,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="3">
-        <f>SUM(F93:G93)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I93" s="2">
@@ -8019,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="3">
-        <f>SUM(I93:J93)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L93" s="2">
@@ -8029,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="N93" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O93" s="2">
@@ -8039,19 +8038,19 @@
         <v>0</v>
       </c>
       <c r="Q93" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R93" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8069,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <f>SUM(C94:D94)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F94" s="2">
@@ -8079,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <f>SUM(F94:G94)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I94" s="2">
@@ -8089,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <f>SUM(I94:J94)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L94" s="2">
@@ -8099,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O94" s="2">
@@ -8109,19 +8108,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R94" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
     </row>
@@ -8139,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="3">
-        <f>SUM(C95:D95)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F95" s="2">
@@ -8149,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="3">
-        <f>SUM(F95:G95)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I95" s="2">
@@ -8159,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="3">
-        <f>SUM(I95:J95)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L95" s="2">
@@ -8169,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O95" s="2">
@@ -8179,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="Q95" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R95" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8209,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <f>SUM(C96:D96)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F96" s="2">
@@ -8219,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <f>SUM(F96:G96)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I96" s="2">
@@ -8229,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <f>SUM(I96:J96)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L96" s="2">
@@ -8239,7 +8238,7 @@
         <v>6</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="O96" s="2">
@@ -8249,19 +8248,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R96" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
     </row>
@@ -8279,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="3">
-        <f>SUM(C97:D97)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F97" s="2">
@@ -8289,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="3">
-        <f>SUM(F97:G97)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I97" s="2">
@@ -8299,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="3">
-        <f>SUM(I97:J97)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L97" s="2">
@@ -8309,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O97" s="2">
@@ -8319,19 +8318,19 @@
         <v>0</v>
       </c>
       <c r="Q97" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R97" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8349,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="3">
-        <f>SUM(C98:D98)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F98" s="2">
@@ -8359,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="3">
-        <f>SUM(F98:G98)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="I98" s="2">
@@ -8369,7 +8368,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="3">
-        <f>SUM(I98:J98)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="L98" s="2">
@@ -8379,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O98" s="2">
@@ -8389,19 +8388,19 @@
         <v>0</v>
       </c>
       <c r="Q98" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
     </row>
@@ -8419,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="3">
-        <f>SUM(C99:D99)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F99" s="2">
@@ -8429,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="3">
-        <f>SUM(F99:G99)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I99" s="2">
@@ -8439,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3">
-        <f>SUM(I99:J99)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L99" s="2">
@@ -8449,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="3">
-        <f t="shared" ref="N99:N114" si="15">SUM(L99:M99)</f>
+        <f t="shared" ref="N99:N114" si="21">SUM(L99:M99)</f>
         <v>3</v>
       </c>
       <c r="O99" s="2">
@@ -8459,19 +8458,19 @@
         <v>0</v>
       </c>
       <c r="Q99" s="3">
-        <f t="shared" ref="Q99:Q114" si="16">SUM(O99:P99)</f>
+        <f t="shared" ref="Q99:Q114" si="22">SUM(O99:P99)</f>
         <v>0</v>
       </c>
       <c r="R99" s="2">
-        <f t="shared" ref="R99:R114" si="17">C99+F99+I99+L99+O99</f>
+        <f t="shared" ref="R99:R114" si="23">C99+F99+I99+L99+O99</f>
         <v>5</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" ref="S99:S114" si="18">D99+G99+J99+M99+P99</f>
+        <f t="shared" ref="S99:S114" si="24">D99+G99+J99+M99+P99</f>
         <v>0</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" ref="T99:T114" si="19">S99+R99</f>
+        <f t="shared" ref="T99:T114" si="25">S99+R99</f>
         <v>5</v>
       </c>
     </row>
@@ -8489,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="3">
-        <f>SUM(C100:D100)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="F100" s="2">
@@ -8499,7 +8498,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <f>SUM(F100:G100)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I100" s="2">
@@ -8509,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <f>SUM(I100:J100)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L100" s="2">
@@ -8519,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="O100" s="2">
@@ -8529,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R100" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
     </row>
@@ -8559,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <f>SUM(C101:D101)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F101" s="2">
@@ -8569,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <f>SUM(F101:G101)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I101" s="2">
@@ -8579,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <f>SUM(I101:J101)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L101" s="2">
@@ -8589,7 +8588,7 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="O101" s="2">
@@ -8599,19 +8598,19 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
     </row>
@@ -8629,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <f>SUM(C102:D102)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F102" s="2">
@@ -8639,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <f>SUM(F102:G102)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I102" s="2">
@@ -8649,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <f>SUM(I102:J102)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L102" s="2">
@@ -8659,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="N102" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="O102" s="2">
@@ -8669,19 +8668,19 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R102" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
     </row>
@@ -8699,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="3">
-        <f>SUM(C103:D103)</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="F103" s="2">
@@ -8709,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="3">
-        <f>SUM(F103:G103)</f>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="I103" s="2">
@@ -8719,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <f>SUM(I103:J103)</f>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="L103" s="2">
@@ -8729,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="N103" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="O103" s="2">
@@ -8739,19 +8738,19 @@
         <v>0</v>
       </c>
       <c r="Q103" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="R103" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>189</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>189</v>
       </c>
     </row>
@@ -8769,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="3">
-        <f>SUM(C104:D104)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F104" s="2">
@@ -8779,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="3">
-        <f>SUM(F104:G104)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I104" s="2">
@@ -8789,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="3">
-        <f>SUM(I104:J104)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="L104" s="2">
@@ -8799,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="N104" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O104" s="2">
@@ -8809,19 +8808,19 @@
         <v>0</v>
       </c>
       <c r="Q104" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R104" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
     </row>
@@ -8839,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="3">
-        <f>SUM(C105:D105)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F105" s="2">
@@ -8849,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="3">
-        <f>SUM(F105:G105)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I105" s="2">
@@ -8859,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="3">
-        <f>SUM(I105:J105)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L105" s="2">
@@ -8869,7 +8868,7 @@
         <v>3</v>
       </c>
       <c r="N105" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="O105" s="2">
@@ -8879,19 +8878,19 @@
         <v>0</v>
       </c>
       <c r="Q105" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="R105" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
     </row>
@@ -8909,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="3">
-        <f>SUM(C106:D106)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F106" s="2">
@@ -8919,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="3">
-        <f>SUM(F106:G106)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I106" s="2">
@@ -8929,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="3">
-        <f>SUM(I106:J106)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L106" s="2">
@@ -8939,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="N106" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O106" s="2">
@@ -8949,19 +8948,19 @@
         <v>0</v>
       </c>
       <c r="Q106" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="R106" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>26</v>
       </c>
       <c r="S106" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
     </row>
@@ -8979,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="3">
-        <f>SUM(C107:D107)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F107" s="2">
@@ -8989,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="3">
-        <f>SUM(F107:G107)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I107" s="2">
@@ -8999,40 +8998,40 @@
         <v>0</v>
       </c>
       <c r="K107" s="3">
-        <f>SUM(I107:J107)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L107" s="2">
         <v>0</v>
       </c>
       <c r="M107" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N107" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>3</v>
       </c>
       <c r="O107" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P107" s="2">
         <v>0</v>
       </c>
       <c r="Q107" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="R107" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="S107" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>3</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -9049,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="3">
-        <f>SUM(C108:D108)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F108" s="2">
@@ -9059,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="H108" s="3">
-        <f>SUM(F108:G108)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I108" s="2">
@@ -9069,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="3">
-        <f>SUM(I108:J108)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L108" s="2">
@@ -9079,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="N108" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O108" s="2">
@@ -9089,19 +9088,19 @@
         <v>0</v>
       </c>
       <c r="Q108" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R108" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="S108" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -9119,7 +9118,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="3">
-        <f>SUM(C109:D109)</f>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="F109" s="2">
@@ -9129,7 +9128,7 @@
         <v>6</v>
       </c>
       <c r="H109" s="3">
-        <f>SUM(F109:G109)</f>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="I109" s="2">
@@ -9139,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="3">
-        <f>SUM(I109:J109)</f>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="L109" s="2">
@@ -9149,7 +9148,7 @@
         <v>3</v>
       </c>
       <c r="N109" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>58</v>
       </c>
       <c r="O109" s="2">
@@ -9159,19 +9158,19 @@
         <v>7</v>
       </c>
       <c r="Q109" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="R109" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>257</v>
       </c>
       <c r="S109" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>277</v>
       </c>
     </row>
@@ -9189,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <f>SUM(C110:D110)</f>
+        <f t="shared" si="13"/>
         <v>166</v>
       </c>
       <c r="F110" s="2">
@@ -9199,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="3">
-        <f>SUM(F110:G110)</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="I110" s="2">
@@ -9209,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="3">
-        <f>SUM(I110:J110)</f>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="L110" s="2">
@@ -9219,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>98</v>
       </c>
       <c r="O110" s="2">
@@ -9229,19 +9228,19 @@
         <v>0</v>
       </c>
       <c r="Q110" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R110" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>416</v>
       </c>
       <c r="S110" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>416</v>
       </c>
     </row>
@@ -9259,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="3">
-        <f>SUM(C111:D111)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F111" s="2">
@@ -9269,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="3">
-        <f>SUM(F111:G111)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I111" s="2">
@@ -9279,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="3">
-        <f>SUM(I111:J111)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L111" s="2">
@@ -9289,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="N111" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O111" s="2">
@@ -9299,19 +9298,19 @@
         <v>9</v>
       </c>
       <c r="Q111" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="R111" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="S111" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
     </row>
@@ -9329,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="3">
-        <f>SUM(C112:D112)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F112" s="2">
@@ -9339,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="H112" s="3">
-        <f>SUM(F112:G112)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I112" s="2">
@@ -9349,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="3">
-        <f>SUM(I112:J112)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L112" s="2">
@@ -9359,7 +9358,7 @@
         <v>12</v>
       </c>
       <c r="N112" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="O112" s="2">
@@ -9369,19 +9368,19 @@
         <v>0</v>
       </c>
       <c r="Q112" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="R112" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="S112" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
     </row>
@@ -9399,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="3">
-        <f>SUM(C113:D113)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F113" s="2">
@@ -9409,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="3">
-        <f>SUM(F113:G113)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I113" s="2">
@@ -9419,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="3">
-        <f>SUM(I113:J113)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="L113" s="2">
@@ -9429,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O113" s="2">
@@ -9439,19 +9438,19 @@
         <v>0</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>222</v>
       </c>
       <c r="R113" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>224</v>
       </c>
       <c r="S113" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>224</v>
       </c>
     </row>
@@ -9466,7 +9465,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="3">
-        <f>SUM(C114:D114)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="F114" s="2">
@@ -9476,7 +9475,7 @@
         <v>4</v>
       </c>
       <c r="H114" s="3">
-        <f>SUM(F114:G114)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="I114" s="2">
@@ -9486,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3">
-        <f>SUM(I114:J114)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="L114" s="2">
@@ -9496,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="N114" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="O114" s="2">
@@ -9506,25 +9505,25 @@
         <v>0</v>
       </c>
       <c r="Q114" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R114" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="S114" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L114" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:L114">
+    <sortState ref="A1:L114">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
